--- a/10项目计划/机器学习平台v1.0项目计划.xlsx
+++ b/10项目计划/机器学习平台v1.0项目计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会议：需求评审、需求最终定稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI设计师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产出：技术方案（表结构、业务流程、接口）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,11 +367,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CodeScriptMgnt、JsonObjectMgnt、ExecutionMgnt、FlowMgnt、ComponentSystem，etc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModuleCatalog、ModulePort、ModuleSystem，etc.</t>
+    <t>集群调测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda-studio-ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda-studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectService、DataService、ModelService、ExperimentService、SystemService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱腾飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFramework、UIComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input/Output、DataProcess、ScriptTools、FeatureEngneering、BinaryClassification、Regression、TrainModel、TuneModelParameters、ScoreModel、EvaluateModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop/HDFS/Yarn/Spark/Kerberos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群部署/调试/评测/优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊、陈如亨、吴庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出：总体架构方案（设计目标和思路、基础表结构、技术选型、工程清单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊、陈如亨、吴庄、陈鹏、朱腾飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业务逻辑和技术实现上确认各环节问题，协助产品经理做好需求梳理工作，部分开发内容可以提前开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈鹏、陈如亨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理和测试未到位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务逻辑设计和开发，组件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算集群部署调试评测优化，组件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算集群部署调试评测优化，业务逻辑开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ModuleCatalog、ModulePort、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ModuleSystem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，etc.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,115 +503,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>集群调测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda-studio-ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda-studio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectService、DataService、ModelService、ExperimentService、SystemService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱腾飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda-component-common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIFramework、UIComponent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input/Output、DataProcess、ScriptTools、FeatureEngneering、BinaryClassification、Regression、TrainModel、TuneModelParameters、ScoreModel、EvaluateModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop/HDFS/Yarn/Spark/Kerberos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群部署/调试/评测/优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昊、陈如亨、吴庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出：总体架构方案（设计目标和思路、基础表结构、技术选型、工程清单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昊、陈如亨、吴庄、陈鹏、朱腾飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从业务逻辑和技术实现上确认各环节问题，协助产品经理做好需求梳理工作，部分开发内容可以提前开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.02.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈鹏、陈如亨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品经理和测试未到位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品经理下周到岗，测试招聘中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务逻辑设计和开发，组件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算集群部署调试评测优化，组件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算集群部署调试评测优化，业务逻辑开发</t>
+    <r>
+      <t>CodeScriptMgnt、JsonObjectMgnt、ExecutionMgnt、FlowMgnt、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ComponentSystem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，etc.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda-component-scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品（王昊兼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品和测试持续招聘中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1177,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>34</v>
@@ -1141,31 +1185,31 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>52</v>
@@ -1173,7 +1217,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>53</v>
@@ -1181,7 +1225,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>54</v>
@@ -1189,7 +1233,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>55</v>
@@ -1197,7 +1241,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>56</v>
@@ -1219,7 +1263,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:I20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1238,10 +1282,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -1282,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>39</v>
@@ -1308,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>38</v>
@@ -1337,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>49</v>
@@ -1375,7 +1419,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>51</v>
@@ -1398,16 +1442,16 @@
         <v>43</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1428,10 +1472,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>51</v>
@@ -1457,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>33</v>
@@ -1486,16 +1530,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>31</v>
@@ -1516,10 +1560,10 @@
       <c r="A12" s="36"/>
       <c r="B12" s="33"/>
       <c r="C12" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="33"/>
@@ -1533,10 +1577,10 @@
       <c r="A13" s="36"/>
       <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="33"/>
@@ -1550,10 +1594,10 @@
       <c r="A14" s="36"/>
       <c r="B14" s="33"/>
       <c r="C14" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="33"/>
@@ -1567,10 +1611,10 @@
       <c r="A15" s="36"/>
       <c r="B15" s="33"/>
       <c r="C15" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="33"/>
@@ -1584,10 +1628,10 @@
       <c r="A16" s="36"/>
       <c r="B16" s="33"/>
       <c r="C16" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="33"/>
@@ -1601,10 +1645,10 @@
       <c r="A17" s="36"/>
       <c r="B17" s="33"/>
       <c r="C17" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="33"/>
@@ -1618,10 +1662,10 @@
       <c r="A18" s="36"/>
       <c r="B18" s="34"/>
       <c r="C18" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="34"/>
@@ -1634,16 +1678,16 @@
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>31</v>
@@ -1664,13 +1708,13 @@
       <c r="A20" s="36"/>
       <c r="B20" s="34"/>
       <c r="C20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>31</v>
@@ -1690,16 +1734,16 @@
     <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>31</v>
@@ -1719,16 +1763,16 @@
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>31</v>
@@ -1761,7 +1805,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>31</v>
@@ -1784,7 +1828,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>31</v>
@@ -1805,7 +1849,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>31</v>
@@ -1830,7 +1874,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>31</v>
@@ -1853,7 +1897,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>31</v>
@@ -1874,7 +1918,7 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>31</v>
@@ -1919,7 +1963,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1942,13 +1986,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
